--- a/data/trans_dic/VUL_INSOM-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_INSOM-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -549,32 +550,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>7,76%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,52</t>
+          <t>2,59; 5,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,25</t>
+          <t>3,14; 6,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,1; 13,69</t>
+          <t>9,92; 15,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,88; 11,57</t>
+          <t>8,08; 13,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 10,41</t>
+          <t>7,35; 10,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,61; 7,92</t>
+          <t>6,23; 9,52</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>3,91%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 3,93</t>
+          <t>4,32; 6,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,78; 5,35</t>
+          <t>1,74; 3,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 7,19</t>
+          <t>7,41; 9,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 8,79</t>
+          <t>4,34; 6,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,79; 5,21</t>
+          <t>6,13; 7,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,55; 6,74</t>
+          <t>3,31; 4,66</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>2,4%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,08</t>
+          <t>1,54; 3,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,15</t>
+          <t>0,98; 3,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,11</t>
+          <t>2,88; 5,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,97</t>
+          <t>2,02; 4,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,07</t>
+          <t>2,57; 4,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,88</t>
+          <t>1,63; 3,3</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>4,14%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 4,05</t>
+          <t>3,82; 5,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 4,41</t>
+          <t>2,04; 3,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,63; 7,44</t>
+          <t>7,15; 8,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,55; 7,9</t>
+          <t>4,83; 6,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,43; 5,52</t>
+          <t>5,75; 6,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 6,06</t>
+          <t>3,67; 4,66</t>
         </is>
       </c>
     </row>
@@ -928,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vulnerabilidad ante el insomnio</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3578</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>9895</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15486</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>28101</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19064</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>37996</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2277; 5247</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6775; 14569</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>12656; 19253</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22113; 36307</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>15846; 23037</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>30510; 46574</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>23697</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>20850</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>36935</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>46909</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>60632</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>67759</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>19540; 28582</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>15037; 28244</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>31969; 42273</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>37724; 57607</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>54210; 67813</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>57403; 80683</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3531</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6609</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>7802</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12472</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11333</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19082</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2331; 5374</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3694; 12072</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5606; 10206</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8384; 17971</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8880; 14474</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>12911; 26193</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>30807</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>37354</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>60222</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>87483</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>91029</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>124837</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>26382; 36194</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>29678; 45886</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>53903; 67195</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>75342; 101918</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>83042; 99350</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>110568; 140410</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/VUL_INSOM-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_INSOM-Estudios-trans_dic.xlsx
@@ -522,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante el insomnio</t>
+          <t>Vulnerabilidad ante el insomnio (tasa de respuesta: 99,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -961,7 +961,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante el insomnio</t>
+          <t>Vulnerabilidad ante el insomnio (tasa de respuesta: 99,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/VUL_INSOM-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_INSOM-Estudios-trans_dic.xlsx
@@ -602,7 +602,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,97</t>
+          <t>2,4; 5,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,92; 15,08</t>
+          <t>10,05; 15,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -660,7 +660,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,35; 10,69</t>
+          <t>7,28; 10,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,32</t>
+          <t>3,91; 5,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,41; 9,79</t>
+          <t>7,13; 9,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 7,67</t>
+          <t>5,69; 7,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,56</t>
+          <t>1,74; 3,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 5,24</t>
+          <t>2,47; 4,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,19</t>
+          <t>2,4; 3,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -880,7 +880,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,82; 5,24</t>
+          <t>3,42; 4,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 8,91</t>
+          <t>6,66; 8,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,75; 6,88</t>
+          <t>5,31; 6,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3578</t>
+          <t>3124</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15486</t>
+          <t>15016</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19064</t>
+          <t>18140</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2277; 5247</t>
+          <t>1975; 4618</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12656; 19253</t>
+          <t>12202; 18533</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15846; 23037</t>
+          <t>14816; 21812</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23697</t>
+          <t>21527</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>36935</t>
+          <t>36215</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>60632</t>
+          <t>57742</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19540; 28582</t>
+          <t>18030; 25792</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>31969; 42273</t>
+          <t>31714; 41357</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54210; 67813</t>
+          <t>51515; 64374</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3531</t>
+          <t>4596</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7802</t>
+          <t>7699</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11333</t>
+          <t>12295</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2331; 5374</t>
+          <t>3045; 6935</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5606; 10206</t>
+          <t>5641; 10458</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8880; 14474</t>
+          <t>9677; 15834</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>30807</t>
+          <t>29247</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>60222</t>
+          <t>58930</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>91029</t>
+          <t>88176</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26382; 36194</t>
+          <t>24588; 33508</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>53903; 67195</t>
+          <t>52947; 65365</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>83042; 99350</t>
+          <t>80340; 96328</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">

--- a/data/trans_dic/VUL_INSOM-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/VUL_INSOM-Estudios-trans_dic.xlsx
@@ -550,32 +550,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -602,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,59%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>3,8%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,59%</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>10,27%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>12,37%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,27%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>7,76%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>8,91%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,76%</t>
         </is>
       </c>
     </row>
@@ -640,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>3,14; 6,75</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>2,4; 5,62</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,14; 6,75</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>8,08; 13,27</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>10,05; 15,27</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>8,08; 13,27</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>6,23; 9,52</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>7,28; 10,71</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>6,23; 9,52</t>
         </is>
       </c>
     </row>
@@ -682,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>4,67%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>8,14%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,39%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>3,91%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>6,37%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,91%</t>
         </is>
       </c>
     </row>
@@ -720,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1,74; 3,28</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>3,91; 5,6</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 3,28</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>4,34; 6,62</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>7,13; 9,29</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,34; 6,62</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>3,31; 4,66</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>5,69; 7,11</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,31; 4,66</t>
         </is>
       </c>
     </row>
@@ -762,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>2,62%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,74%</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>3,37%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,01%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>3,04%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,4%</t>
         </is>
       </c>
     </row>
@@ -800,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,98; 3,19</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>1,74; 3,95</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 3,19</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>2,02; 4,33</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>2,47; 4,58</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,02; 4,33</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>1,63; 3,3</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>2,4; 3,92</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,63; 3,3</t>
         </is>
       </c>
     </row>
@@ -842,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>4,07%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,56%</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>7,41%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,61%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>5,83%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,14%</t>
         </is>
       </c>
     </row>
@@ -880,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,04; 3,15</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>3,42; 4,66</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,04; 3,15</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>4,83; 6,54</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>6,66; 8,22</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,83; 6,54</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>3,67; 4,66</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>5,31; 6,37</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,67; 4,66</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1041,32 +1041,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>96</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>118</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>103</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>9895</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>3124</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>9895</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>28101</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>15016</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>28101</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>37996</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>18140</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>37996</t>
         </is>
       </c>
     </row>
@@ -1117,32 +1117,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>6775; 14569</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>1975; 4618</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6775; 14569</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>22113; 36307</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>12202; 18533</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>22113; 36307</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>30510; 46574</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>14816; 21812</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>30510; 46574</t>
         </is>
       </c>
     </row>
@@ -1159,32 +1159,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>132</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>211</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>343</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>148</t>
         </is>
       </c>
     </row>
@@ -1197,32 +1197,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>20850</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>21527</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>20850</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>46909</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>36215</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>46909</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>67759</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>57742</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>67759</t>
         </is>
       </c>
     </row>
@@ -1235,32 +1235,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>15037; 28244</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>18030; 25792</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>15037; 28244</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>37724; 57607</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>31714; 41357</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>37724; 57607</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>57403; 80683</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>51515; 64374</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>57403; 80683</t>
         </is>
       </c>
     </row>
@@ -1277,32 +1277,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>70</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
         </is>
       </c>
     </row>
@@ -1315,32 +1315,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>6609</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>4596</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>6609</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>12472</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>7699</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>12472</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>19082</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>12295</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>19082</t>
         </is>
       </c>
     </row>
@@ -1353,32 +1353,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3694; 12072</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>3045; 6935</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3694; 12072</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>8384; 17971</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>5641; 10458</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>8384; 17971</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>12911; 26193</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>9677; 15834</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>12911; 26193</t>
         </is>
       </c>
     </row>
@@ -1395,32 +1395,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>178</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>353</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>531</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>293</t>
         </is>
       </c>
     </row>
@@ -1433,32 +1433,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>37354</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>29247</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>37354</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>87483</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>58930</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>87483</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>124837</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>88176</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>124837</t>
         </is>
       </c>
     </row>
@@ -1471,32 +1471,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>29678; 45886</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>24588; 33508</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>29678; 45886</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>75342; 101918</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>52947; 65365</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>75342; 101918</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>110568; 140410</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>80340; 96328</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>110568; 140410</t>
         </is>
       </c>
     </row>
